--- a/CRB_WELL_WATERLEVEL_2011_TEMPLATE_DRAFT.xlsx
+++ b/CRB_WELL_WATERLEVEL_2011_TEMPLATE_DRAFT.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="0" windowWidth="27860" windowHeight="17540" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Citation" sheetId="1" r:id="rId1"/>
+    <sheet name="Dataset Citation" sheetId="1" r:id="rId1"/>
     <sheet name="Sampling Features" sheetId="2" r:id="rId2"/>
     <sheet name="Results Description" sheetId="4" r:id="rId3"/>
     <sheet name="Data Values" sheetId="5" r:id="rId4"/>
-    <sheet name="Display File" sheetId="6" r:id="rId5"/>
+    <sheet name="Display File JSON" sheetId="6" r:id="rId5"/>
     <sheet name="Controlled Vocabularies" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -91,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="470">
   <si>
     <t>Dataset UUID</t>
   </si>
@@ -1498,13 +1503,16 @@
   </si>
   <si>
     <t>{"CZO Display File": {"Version": 2.0, "Profile": "HydroTimeSeries"},</t>
+  </si>
+  <si>
+    <t>site</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1525,6 +1533,22 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1814,8 +1838,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1832,21 +1858,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1857,8 +1868,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2166,118 +2194,118 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+    <row r="2" spans="1:6" ht="15" thickBot="1"/>
+    <row r="3" spans="1:6" ht="15" thickBot="1">
+      <c r="A3" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="15"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="28"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickTop="1">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="7"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="10"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="10"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" thickBot="1">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="13"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+    <row r="13" spans="1:6" ht="15" thickBot="1"/>
+    <row r="14" spans="1:6">
+      <c r="A14" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" thickBot="1">
+      <c r="A15" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" thickTop="1">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -2285,7 +2313,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -2293,7 +2321,7 @@
       <c r="E17" s="9"/>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -2301,7 +2329,7 @@
       <c r="E18" s="9"/>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -2309,7 +2337,7 @@
       <c r="E19" s="9"/>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -2317,7 +2345,7 @@
       <c r="E20" s="9"/>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -2325,7 +2353,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -2333,7 +2361,7 @@
       <c r="E22" s="9"/>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -2341,7 +2369,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" thickBot="1">
       <c r="A24" s="11"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -2367,6 +2395,9 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
   </extLst>
 </worksheet>
 </file>
@@ -2375,79 +2406,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+    <row r="2" spans="1:9" ht="15" thickBot="1"/>
+    <row r="3" spans="1:9" ht="15" thickBot="1">
+      <c r="A3" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="B3" s="15"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="B3" s="28"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickTop="1">
+      <c r="A4" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B4" s="7"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+    <row r="5" spans="1:9" ht="15" thickBot="1">
+      <c r="A5" s="18" t="s">
         <v>164</v>
       </c>
       <c r="B5" s="13"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+    <row r="6" spans="1:9" ht="15" thickBot="1"/>
+    <row r="7" spans="1:9" ht="15" thickBot="1">
+      <c r="A7" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="I7" s="22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" thickTop="1">
       <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>469</v>
+      </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -2456,9 +2491,11 @@
       <c r="H8" s="6"/>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
+      <c r="B9" s="6" t="s">
+        <v>469</v>
+      </c>
       <c r="C9" s="9"/>
       <c r="D9" s="6"/>
       <c r="E9" s="9"/>
@@ -2467,9 +2504,11 @@
       <c r="H9" s="9"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
+      <c r="B10" s="6" t="s">
+        <v>469</v>
+      </c>
       <c r="C10" s="9"/>
       <c r="D10" s="6"/>
       <c r="E10" s="9"/>
@@ -2478,9 +2517,11 @@
       <c r="H10" s="9"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
+      <c r="B11" s="6" t="s">
+        <v>469</v>
+      </c>
       <c r="C11" s="9"/>
       <c r="D11" s="6"/>
       <c r="E11" s="9"/>
@@ -2489,9 +2530,11 @@
       <c r="H11" s="9"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
+      <c r="B12" s="6" t="s">
+        <v>469</v>
+      </c>
       <c r="C12" s="9"/>
       <c r="D12" s="6"/>
       <c r="E12" s="9"/>
@@ -2500,9 +2543,11 @@
       <c r="H12" s="9"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
+      <c r="B13" s="6" t="s">
+        <v>469</v>
+      </c>
       <c r="C13" s="9"/>
       <c r="D13" s="6"/>
       <c r="E13" s="9"/>
@@ -2511,9 +2556,11 @@
       <c r="H13" s="9"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
+      <c r="B14" s="6" t="s">
+        <v>469</v>
+      </c>
       <c r="C14" s="9"/>
       <c r="D14" s="6"/>
       <c r="E14" s="9"/>
@@ -2522,9 +2569,11 @@
       <c r="H14" s="9"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
+      <c r="B15" s="6" t="s">
+        <v>469</v>
+      </c>
       <c r="C15" s="9"/>
       <c r="D15" s="6"/>
       <c r="E15" s="9"/>
@@ -2533,9 +2582,11 @@
       <c r="H15" s="9"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
+      <c r="B16" s="6" t="s">
+        <v>469</v>
+      </c>
       <c r="C16" s="9"/>
       <c r="D16" s="6"/>
       <c r="E16" s="9"/>
@@ -2544,9 +2595,11 @@
       <c r="H16" s="9"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
+      <c r="B17" s="6" t="s">
+        <v>469</v>
+      </c>
       <c r="C17" s="9"/>
       <c r="D17" s="6"/>
       <c r="E17" s="9"/>
@@ -2555,9 +2608,11 @@
       <c r="H17" s="9"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
+      <c r="B18" s="6" t="s">
+        <v>469</v>
+      </c>
       <c r="C18" s="9"/>
       <c r="D18" s="6"/>
       <c r="E18" s="9"/>
@@ -2566,7 +2621,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -2577,7 +2632,7 @@
       <c r="H19" s="9"/>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -2588,7 +2643,7 @@
       <c r="H20" s="9"/>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -2599,7 +2654,7 @@
       <c r="H21" s="9"/>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -2610,7 +2665,7 @@
       <c r="H22" s="9"/>
       <c r="I22" s="10"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -2621,7 +2676,7 @@
       <c r="H23" s="9"/>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -2632,7 +2687,7 @@
       <c r="H24" s="9"/>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -2643,7 +2698,7 @@
       <c r="H25" s="9"/>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -2654,7 +2709,7 @@
       <c r="H26" s="9"/>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -2665,7 +2720,7 @@
       <c r="H27" s="9"/>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -2676,7 +2731,7 @@
       <c r="H28" s="9"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -2687,7 +2742,7 @@
       <c r="H29" s="9"/>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -2698,7 +2753,7 @@
       <c r="H30" s="9"/>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="8"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -2709,7 +2764,7 @@
       <c r="H31" s="9"/>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -2720,7 +2775,7 @@
       <c r="H32" s="9"/>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="8"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -2731,7 +2786,7 @@
       <c r="H33" s="9"/>
       <c r="I33" s="10"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -2742,7 +2797,7 @@
       <c r="H34" s="9"/>
       <c r="I34" s="10"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="8"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -2753,7 +2808,7 @@
       <c r="H35" s="9"/>
       <c r="I35" s="10"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -2764,7 +2819,7 @@
       <c r="H36" s="9"/>
       <c r="I36" s="10"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="8"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -2775,7 +2830,7 @@
       <c r="H37" s="9"/>
       <c r="I37" s="10"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="8"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -2786,7 +2841,7 @@
       <c r="H38" s="9"/>
       <c r="I38" s="10"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="8"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -2797,7 +2852,7 @@
       <c r="H39" s="9"/>
       <c r="I39" s="10"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="8"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -2808,7 +2863,7 @@
       <c r="H40" s="9"/>
       <c r="I40" s="10"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="8"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -2819,7 +2874,7 @@
       <c r="H41" s="9"/>
       <c r="I41" s="10"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="8"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -2830,7 +2885,7 @@
       <c r="H42" s="9"/>
       <c r="I42" s="10"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="8"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -2841,7 +2896,7 @@
       <c r="H43" s="9"/>
       <c r="I43" s="10"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="8"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -2852,7 +2907,7 @@
       <c r="H44" s="9"/>
       <c r="I44" s="10"/>
     </row>
-    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15" thickBot="1">
       <c r="A45" s="11"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
@@ -2868,6 +2923,7 @@
     <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -2904,6 +2960,9 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
   </extLst>
 </worksheet>
 </file>
@@ -2912,116 +2971,116 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+    <row r="2" spans="1:8" ht="15" thickBot="1"/>
+    <row r="3" spans="1:8" ht="15" thickBot="1">
+      <c r="A3" s="27" t="s">
         <v>400</v>
       </c>
-      <c r="B3" s="15"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="B3" s="28"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickTop="1">
+      <c r="A4" s="19" t="s">
         <v>401</v>
       </c>
       <c r="B4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="17" t="s">
         <v>402</v>
       </c>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="17" t="s">
         <v>403</v>
       </c>
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="17" t="s">
         <v>404</v>
       </c>
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="17" t="s">
         <v>405</v>
       </c>
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="17" t="s">
         <v>406</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
+    <row r="10" spans="1:8" ht="15" thickBot="1">
+      <c r="A10" s="18" t="s">
         <v>407</v>
       </c>
       <c r="B10" s="13"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+    <row r="11" spans="1:8" ht="15" thickBot="1"/>
+    <row r="12" spans="1:8">
+      <c r="A12" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1">
+      <c r="A13" s="14" t="s">
         <v>409</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="15" t="s">
         <v>410</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="15" t="s">
         <v>411</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="15" t="s">
         <v>415</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="16" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" thickTop="1">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -3031,7 +3090,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -3041,7 +3100,7 @@
       <c r="G15" s="9"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -3051,7 +3110,7 @@
       <c r="G16" s="9"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -3061,7 +3120,7 @@
       <c r="G17" s="9"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -3071,7 +3130,7 @@
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -3081,7 +3140,7 @@
       <c r="G19" s="9"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -3091,7 +3150,7 @@
       <c r="G20" s="9"/>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -3101,7 +3160,7 @@
       <c r="G21" s="9"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -3111,7 +3170,7 @@
       <c r="G22" s="9"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -3121,7 +3180,7 @@
       <c r="G23" s="9"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -3131,7 +3190,7 @@
       <c r="G24" s="9"/>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -3141,7 +3200,7 @@
       <c r="G25" s="9"/>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -3151,7 +3210,7 @@
       <c r="G26" s="9"/>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -3161,7 +3220,7 @@
       <c r="G27" s="9"/>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -3171,7 +3230,7 @@
       <c r="G28" s="9"/>
       <c r="H28" s="10"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -3181,7 +3240,7 @@
       <c r="G29" s="9"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -3191,7 +3250,7 @@
       <c r="G30" s="9"/>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="8"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -3201,7 +3260,7 @@
       <c r="G31" s="9"/>
       <c r="H31" s="10"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -3211,7 +3270,7 @@
       <c r="G32" s="9"/>
       <c r="H32" s="10"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="8"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -3221,7 +3280,7 @@
       <c r="G33" s="9"/>
       <c r="H33" s="10"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -3231,7 +3290,7 @@
       <c r="G34" s="9"/>
       <c r="H34" s="10"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="8"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -3241,7 +3300,7 @@
       <c r="G35" s="9"/>
       <c r="H35" s="10"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -3251,7 +3310,7 @@
       <c r="G36" s="9"/>
       <c r="H36" s="10"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="8"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -3261,7 +3320,7 @@
       <c r="G37" s="9"/>
       <c r="H37" s="10"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="8"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -3271,7 +3330,7 @@
       <c r="G38" s="9"/>
       <c r="H38" s="10"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="8"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -3281,7 +3340,7 @@
       <c r="G39" s="9"/>
       <c r="H39" s="10"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="8"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -3291,7 +3350,7 @@
       <c r="G40" s="9"/>
       <c r="H40" s="10"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="8"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -3301,7 +3360,7 @@
       <c r="G41" s="9"/>
       <c r="H41" s="10"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="8"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -3311,7 +3370,7 @@
       <c r="G42" s="9"/>
       <c r="H42" s="10"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="8"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -3321,7 +3380,7 @@
       <c r="G43" s="9"/>
       <c r="H43" s="10"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="8"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -3331,7 +3390,7 @@
       <c r="G44" s="9"/>
       <c r="H44" s="10"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="8"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -3341,7 +3400,7 @@
       <c r="G45" s="9"/>
       <c r="H45" s="10"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="8"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -3351,7 +3410,7 @@
       <c r="G46" s="9"/>
       <c r="H46" s="10"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="8"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -3361,7 +3420,7 @@
       <c r="G47" s="9"/>
       <c r="H47" s="10"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="8"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -3371,7 +3430,7 @@
       <c r="G48" s="9"/>
       <c r="H48" s="10"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" s="8"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -3381,7 +3440,7 @@
       <c r="G49" s="9"/>
       <c r="H49" s="10"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" s="8"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -3391,7 +3450,7 @@
       <c r="G50" s="9"/>
       <c r="H50" s="10"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" s="8"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -3401,7 +3460,7 @@
       <c r="G51" s="9"/>
       <c r="H51" s="10"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" s="8"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -3411,7 +3470,7 @@
       <c r="G52" s="9"/>
       <c r="H52" s="10"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" s="8"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -3421,7 +3480,7 @@
       <c r="G53" s="9"/>
       <c r="H53" s="10"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54" s="8"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -3431,7 +3490,7 @@
       <c r="G54" s="9"/>
       <c r="H54" s="10"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" s="8"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -3441,7 +3500,7 @@
       <c r="G55" s="9"/>
       <c r="H55" s="10"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56" s="8"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -3451,7 +3510,7 @@
       <c r="G56" s="9"/>
       <c r="H56" s="10"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57" s="8"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -3461,7 +3520,7 @@
       <c r="G57" s="9"/>
       <c r="H57" s="10"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58" s="8"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -3471,7 +3530,7 @@
       <c r="G58" s="9"/>
       <c r="H58" s="10"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" s="8"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -3481,7 +3540,7 @@
       <c r="G59" s="9"/>
       <c r="H59" s="10"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="A60" s="8"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -3491,7 +3550,7 @@
       <c r="G60" s="9"/>
       <c r="H60" s="10"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="A61" s="8"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -3501,7 +3560,7 @@
       <c r="G61" s="9"/>
       <c r="H61" s="10"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62" s="8"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
@@ -3511,7 +3570,7 @@
       <c r="G62" s="9"/>
       <c r="H62" s="10"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63" s="8"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
@@ -3521,7 +3580,7 @@
       <c r="G63" s="9"/>
       <c r="H63" s="10"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64" s="8"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
@@ -3531,7 +3590,7 @@
       <c r="G64" s="9"/>
       <c r="H64" s="10"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65" s="8"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
@@ -3541,7 +3600,7 @@
       <c r="G65" s="9"/>
       <c r="H65" s="10"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8">
       <c r="A66" s="8"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
@@ -3551,7 +3610,7 @@
       <c r="G66" s="9"/>
       <c r="H66" s="10"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67" s="8"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
@@ -3561,7 +3620,7 @@
       <c r="G67" s="9"/>
       <c r="H67" s="10"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="A68" s="8"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
@@ -3571,7 +3630,7 @@
       <c r="G68" s="9"/>
       <c r="H68" s="10"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8">
       <c r="A69" s="8"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
@@ -3581,7 +3640,7 @@
       <c r="G69" s="9"/>
       <c r="H69" s="10"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8">
       <c r="A70" s="8"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -3591,7 +3650,7 @@
       <c r="G70" s="9"/>
       <c r="H70" s="10"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="A71" s="8"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -3601,7 +3660,7 @@
       <c r="G71" s="9"/>
       <c r="H71" s="10"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8">
       <c r="A72" s="8"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
@@ -3611,7 +3670,7 @@
       <c r="G72" s="9"/>
       <c r="H72" s="10"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8">
       <c r="A73" s="8"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
@@ -3621,7 +3680,7 @@
       <c r="G73" s="9"/>
       <c r="H73" s="10"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8">
       <c r="A74" s="8"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
@@ -3631,7 +3690,7 @@
       <c r="G74" s="9"/>
       <c r="H74" s="10"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8">
       <c r="A75" s="8"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
@@ -3641,7 +3700,7 @@
       <c r="G75" s="9"/>
       <c r="H75" s="10"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8">
       <c r="A76" s="8"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
@@ -3651,7 +3710,7 @@
       <c r="G76" s="9"/>
       <c r="H76" s="10"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8">
       <c r="A77" s="8"/>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
@@ -3661,7 +3720,7 @@
       <c r="G77" s="9"/>
       <c r="H77" s="10"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8">
       <c r="A78" s="8"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
@@ -3671,7 +3730,7 @@
       <c r="G78" s="9"/>
       <c r="H78" s="10"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8">
       <c r="A79" s="8"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -3681,7 +3740,7 @@
       <c r="G79" s="9"/>
       <c r="H79" s="10"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8">
       <c r="A80" s="8"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
@@ -3691,7 +3750,7 @@
       <c r="G80" s="9"/>
       <c r="H80" s="10"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="A81" s="8"/>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
@@ -3701,7 +3760,7 @@
       <c r="G81" s="9"/>
       <c r="H81" s="10"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82" s="8"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
@@ -3711,7 +3770,7 @@
       <c r="G82" s="9"/>
       <c r="H82" s="10"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="A83" s="8"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
@@ -3721,7 +3780,7 @@
       <c r="G83" s="9"/>
       <c r="H83" s="10"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="A84" s="8"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
@@ -3731,7 +3790,7 @@
       <c r="G84" s="9"/>
       <c r="H84" s="10"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
       <c r="A85" s="8"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
@@ -3741,7 +3800,7 @@
       <c r="G85" s="9"/>
       <c r="H85" s="10"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86" s="8"/>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
@@ -3751,7 +3810,7 @@
       <c r="G86" s="9"/>
       <c r="H86" s="10"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="A87" s="8"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
@@ -3761,7 +3820,7 @@
       <c r="G87" s="9"/>
       <c r="H87" s="10"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="A88" s="8"/>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
@@ -3771,7 +3830,7 @@
       <c r="G88" s="9"/>
       <c r="H88" s="10"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="A89" s="8"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
@@ -3781,7 +3840,7 @@
       <c r="G89" s="9"/>
       <c r="H89" s="10"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="A90" s="8"/>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
@@ -3791,7 +3850,7 @@
       <c r="G90" s="9"/>
       <c r="H90" s="10"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8">
       <c r="A91" s="8"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
@@ -3801,7 +3860,7 @@
       <c r="G91" s="9"/>
       <c r="H91" s="10"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="A92" s="8"/>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
@@ -3811,7 +3870,7 @@
       <c r="G92" s="9"/>
       <c r="H92" s="10"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8">
       <c r="A93" s="8"/>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
@@ -3821,7 +3880,7 @@
       <c r="G93" s="9"/>
       <c r="H93" s="10"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8">
       <c r="A94" s="8"/>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
@@ -3831,7 +3890,7 @@
       <c r="G94" s="9"/>
       <c r="H94" s="10"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8">
       <c r="A95" s="8"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
@@ -3841,7 +3900,7 @@
       <c r="G95" s="9"/>
       <c r="H95" s="10"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="A96" s="8"/>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
@@ -3851,7 +3910,7 @@
       <c r="G96" s="9"/>
       <c r="H96" s="10"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8">
       <c r="A97" s="8"/>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
@@ -3861,7 +3920,7 @@
       <c r="G97" s="9"/>
       <c r="H97" s="10"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8">
       <c r="A98" s="8"/>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
@@ -3871,7 +3930,7 @@
       <c r="G98" s="9"/>
       <c r="H98" s="10"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8">
       <c r="A99" s="8"/>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
@@ -3881,7 +3940,7 @@
       <c r="G99" s="9"/>
       <c r="H99" s="10"/>
     </row>
-    <row r="100" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" ht="15" thickBot="1">
       <c r="A100" s="11"/>
       <c r="B100" s="12"/>
       <c r="C100" s="12"/>
@@ -3897,6 +3956,11 @@
     <mergeCell ref="A12:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3908,14 +3972,14 @@
       <selection activeCell="J5" sqref="J4:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="51" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="51" width="5.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51">
       <c r="A1" t="s">
         <v>417</v>
       </c>
@@ -4072,6 +4136,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4079,19 +4148,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>468</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4099,22 +4171,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H228"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -4140,7 +4212,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -4162,11 +4234,11 @@
       <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="23" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -4189,7 +4261,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -4212,7 +4284,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -4235,7 +4307,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -4255,7 +4327,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -4275,7 +4347,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -4295,7 +4367,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -4315,7 +4387,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -4332,7 +4404,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="B11" t="s">
         <v>49</v>
       </c>
@@ -4346,7 +4418,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="B12" t="s">
         <v>50</v>
       </c>
@@ -4360,7 +4432,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="B13" t="s">
         <v>51</v>
       </c>
@@ -4374,7 +4446,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="B14" t="s">
         <v>52</v>
       </c>
@@ -4388,7 +4460,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="B15" t="s">
         <v>53</v>
       </c>
@@ -4402,7 +4474,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="B16" t="s">
         <v>54</v>
       </c>
@@ -4416,7 +4488,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7">
       <c r="B17" t="s">
         <v>55</v>
       </c>
@@ -4430,7 +4502,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7">
       <c r="B18" t="s">
         <v>56</v>
       </c>
@@ -4444,7 +4516,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7">
       <c r="B19" t="s">
         <v>57</v>
       </c>
@@ -4458,7 +4530,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7">
       <c r="B20" t="s">
         <v>58</v>
       </c>
@@ -4472,7 +4544,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7">
       <c r="B21" t="s">
         <v>59</v>
       </c>
@@ -4486,7 +4558,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7">
       <c r="B22" t="s">
         <v>60</v>
       </c>
@@ -4500,7 +4572,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7">
       <c r="D23" t="s">
         <v>91</v>
       </c>
@@ -4511,7 +4583,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7">
       <c r="D24" t="s">
         <v>92</v>
       </c>
@@ -4522,7 +4594,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7">
       <c r="D25" t="s">
         <v>93</v>
       </c>
@@ -4533,7 +4605,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7">
       <c r="D26" t="s">
         <v>94</v>
       </c>
@@ -4544,7 +4616,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7">
       <c r="D27" t="s">
         <v>95</v>
       </c>
@@ -4555,7 +4627,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7">
       <c r="D28" t="s">
         <v>96</v>
       </c>
@@ -4566,7 +4638,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7">
       <c r="D29" t="s">
         <v>97</v>
       </c>
@@ -4577,7 +4649,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7">
       <c r="D30" t="s">
         <v>98</v>
       </c>
@@ -4588,7 +4660,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7">
       <c r="D31" t="s">
         <v>99</v>
       </c>
@@ -4599,7 +4671,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7">
       <c r="D32" t="s">
         <v>100</v>
       </c>
@@ -4610,7 +4682,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:7">
       <c r="D33" t="s">
         <v>101</v>
       </c>
@@ -4621,7 +4693,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:7">
       <c r="D34" t="s">
         <v>102</v>
       </c>
@@ -4632,7 +4704,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:7">
       <c r="D35" t="s">
         <v>103</v>
       </c>
@@ -4643,7 +4715,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:7">
       <c r="D36" t="s">
         <v>104</v>
       </c>
@@ -4654,7 +4726,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:7">
       <c r="D37" t="s">
         <v>105</v>
       </c>
@@ -4665,7 +4737,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:7">
       <c r="D38" t="s">
         <v>106</v>
       </c>
@@ -4676,7 +4748,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:7">
       <c r="D39" t="s">
         <v>107</v>
       </c>
@@ -4687,7 +4759,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:7">
       <c r="D40" t="s">
         <v>108</v>
       </c>
@@ -4698,7 +4770,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:7">
       <c r="D41" t="s">
         <v>109</v>
       </c>
@@ -4709,7 +4781,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:7">
       <c r="D42" t="s">
         <v>15</v>
       </c>
@@ -4720,7 +4792,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:7">
       <c r="D43" t="s">
         <v>110</v>
       </c>
@@ -4731,7 +4803,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:7">
       <c r="D44" t="s">
         <v>111</v>
       </c>
@@ -4742,7 +4814,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="45" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:7">
       <c r="D45" t="s">
         <v>112</v>
       </c>
@@ -4753,7 +4825,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="46" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:7">
       <c r="D46" t="s">
         <v>113</v>
       </c>
@@ -4761,7 +4833,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="47" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:7">
       <c r="D47" t="s">
         <v>114</v>
       </c>
@@ -4769,7 +4841,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="48" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:7">
       <c r="D48" t="s">
         <v>115</v>
       </c>
@@ -4777,7 +4849,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="49" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:7">
       <c r="D49" t="s">
         <v>116</v>
       </c>
@@ -4785,7 +4857,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:7">
       <c r="D50" t="s">
         <v>117</v>
       </c>
@@ -4793,7 +4865,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:7">
       <c r="D51" t="s">
         <v>118</v>
       </c>
@@ -4801,893 +4873,898 @@
         <v>214</v>
       </c>
     </row>
-    <row r="52" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:7">
       <c r="G52" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="53" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:7">
       <c r="G53" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="54" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:7">
       <c r="G54" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="55" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:7">
       <c r="G55" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="56" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:7">
       <c r="G56" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:7">
       <c r="G57" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:7">
       <c r="G58" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="59" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:7">
       <c r="G59" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="60" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:7">
       <c r="G60" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="61" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:7">
       <c r="G61" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="62" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:7">
       <c r="G62" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="63" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:7">
       <c r="G63" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="64" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:7">
       <c r="G64" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="65" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="7:7">
       <c r="G65" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="66" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="7:7">
       <c r="G66" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="67" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="7:7">
       <c r="G67" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="68" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="7:7">
       <c r="G68" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="69" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="7:7">
       <c r="G69" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="70" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="7:7">
       <c r="G70" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="71" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="7:7">
       <c r="G71" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="72" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="7:7">
       <c r="G72" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="73" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="7:7">
       <c r="G73" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="74" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="7:7">
       <c r="G74" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="75" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="7:7">
       <c r="G75" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="76" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="7:7">
       <c r="G76" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="77" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="7:7">
       <c r="G77" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="78" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="7:7">
       <c r="G78" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="79" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="7:7">
       <c r="G79" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="80" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="7:7">
       <c r="G80" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="81" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="7:7">
       <c r="G81" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="82" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="7:7">
       <c r="G82" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="83" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="7:7">
       <c r="G83" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="84" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="7:7">
       <c r="G84" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="85" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="7:7">
       <c r="G85" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="86" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="7:7">
       <c r="G86" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="87" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="7:7">
       <c r="G87" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="88" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="7:7">
       <c r="G88" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="89" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="7:7">
       <c r="G89" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="90" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="7:7">
       <c r="G90" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="91" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="7:7">
       <c r="G91" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="92" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="7:7">
       <c r="G92" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="93" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="7:7">
       <c r="G93" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="94" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="7:7">
       <c r="G94" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="95" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="7:7">
       <c r="G95" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="96" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="7:7">
       <c r="G96" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="97" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="7:7">
       <c r="G97" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="98" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="7:7">
       <c r="G98" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="99" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="7:7">
       <c r="G99" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="100" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="7:7">
       <c r="G100" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="101" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="7:7">
       <c r="G101" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="102" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="7:7">
       <c r="G102" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="103" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="7:7">
       <c r="G103" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="104" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="7:7">
       <c r="G104" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="105" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="7:7">
       <c r="G105" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="106" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="7:7">
       <c r="G106" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="107" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="7:7">
       <c r="G107" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="108" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="7:7">
       <c r="G108" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="109" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="7:7">
       <c r="G109" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="110" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="7:7">
       <c r="G110" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="111" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="7:7">
       <c r="G111" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="112" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="7:7">
       <c r="G112" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="113" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="7:7">
       <c r="G113" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="114" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="7:7">
       <c r="G114" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="115" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="7:7">
       <c r="G115" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="116" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="7:7">
       <c r="G116" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="117" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="7:7">
       <c r="G117" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="118" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="7:7">
       <c r="G118" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="119" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="7:7">
       <c r="G119" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="120" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="7:7">
       <c r="G120" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="121" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="7:7">
       <c r="G121" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="122" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="7:7">
       <c r="G122" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="123" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="7:7">
       <c r="G123" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="124" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="7:7">
       <c r="G124" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="125" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="7:7">
       <c r="G125" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="126" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="7:7">
       <c r="G126" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="127" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="7:7">
       <c r="G127" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="128" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="7:7">
       <c r="G128" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="129" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="7:7">
       <c r="G129" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="130" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="7:7">
       <c r="G130" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="131" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="7:7">
       <c r="G131" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="132" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="7:7">
       <c r="G132" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="133" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="7:7">
       <c r="G133" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="134" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="7:7">
       <c r="G134" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="135" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="7:7">
       <c r="G135" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="136" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="7:7">
       <c r="G136" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="137" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="7:7">
       <c r="G137" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="138" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="7:7">
       <c r="G138" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="139" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="7:7">
       <c r="G139" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="140" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="7:7">
       <c r="G140" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="141" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="7:7">
       <c r="G141" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="142" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="7:7">
       <c r="G142" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="143" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="7:7">
       <c r="G143" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="144" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="7:7">
       <c r="G144" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="145" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="7:7">
       <c r="G145" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="146" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="7:7">
       <c r="G146" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="147" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="7:7">
       <c r="G147" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="148" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="7:7">
       <c r="G148" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="149" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="7:7">
       <c r="G149" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="150" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="7:7">
       <c r="G150" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="151" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="7:7">
       <c r="G151" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="152" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="7:7">
       <c r="G152" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="153" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="7:7">
       <c r="G153" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="154" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="7:7">
       <c r="G154" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="155" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="7:7">
       <c r="G155" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="156" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="7:7">
       <c r="G156" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="157" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="7:7">
       <c r="G157" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="158" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="7:7">
       <c r="G158" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="159" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="7:7">
       <c r="G159" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="160" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="7:7">
       <c r="G160" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="161" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="7:7">
       <c r="G161" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="162" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="7:7">
       <c r="G162" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="163" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="7:7">
       <c r="G163" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="164" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="7:7">
       <c r="G164" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="165" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="7:7">
       <c r="G165" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="166" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="7:7">
       <c r="G166" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="167" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="7:7">
       <c r="G167" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="168" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="7:7">
       <c r="G168" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="169" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="7:7">
       <c r="G169" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="170" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="7:7">
       <c r="G170" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="171" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="7:7">
       <c r="G171" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="172" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="7:7">
       <c r="G172" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="173" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="7:7">
       <c r="G173" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="174" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="7:7">
       <c r="G174" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="175" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="7:7">
       <c r="G175" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="176" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="7:7">
       <c r="G176" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="177" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="7:7">
       <c r="G177" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="178" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="7:7">
       <c r="G178" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="179" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="7:7">
       <c r="G179" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="180" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="7:7">
       <c r="G180" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="181" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="7:7">
       <c r="G181" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="182" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="7:7">
       <c r="G182" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="183" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="7:7">
       <c r="G183" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="184" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="7:7">
       <c r="G184" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="185" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="7:7">
       <c r="G185" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="186" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="7:7">
       <c r="G186" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="187" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="7:7">
       <c r="G187" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="188" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="7:7">
       <c r="G188" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="189" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="7:7">
       <c r="G189" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="190" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="7:7">
       <c r="G190" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="191" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="7:7">
       <c r="G191" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="192" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="7:7">
       <c r="G192" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="193" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="7:7">
       <c r="G193" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="194" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="7:7">
       <c r="G194" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="195" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="7:7">
       <c r="G195" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="196" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="7:7">
       <c r="G196" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="197" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="7:7">
       <c r="G197" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="198" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="7:7">
       <c r="G198" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="199" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="7:7">
       <c r="G199" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="200" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="7:7">
       <c r="G200" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="201" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="7:7">
       <c r="G201" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="202" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="7:7">
       <c r="G202" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="203" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="7:7">
       <c r="G203" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="204" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="7:7">
       <c r="G204" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="205" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="7:7">
       <c r="G205" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="206" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="7:7">
       <c r="G206" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="207" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="7:7">
       <c r="G207" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="208" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="7:7">
       <c r="G208" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="209" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="7:7">
       <c r="G209" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="210" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="7:7">
       <c r="G210" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="211" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="7:7">
       <c r="G211" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="212" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="7:7">
       <c r="G212" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="213" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="7:7">
       <c r="G213" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="214" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="7:7">
       <c r="G214" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="215" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="7:7">
       <c r="G215" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="216" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="7:7">
       <c r="G216" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="217" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="7:7">
       <c r="G217" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="218" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="7:7">
       <c r="G218" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="219" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="7:7">
       <c r="G219" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="220" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="7:7">
       <c r="G220" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="221" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="7:7">
       <c r="G221" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="222" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="7:7">
       <c r="G222" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="223" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="7:7">
       <c r="G223" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="224" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="7:7">
       <c r="G224" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="225" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="7:7">
       <c r="G225" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="226" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="7:7">
       <c r="G226" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="227" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="7:7">
       <c r="G227" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="228" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="7:7">
       <c r="G228" t="s">
         <v>391</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>